--- a/interface/case/api.xlsx
+++ b/interface/case/api.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"tokenid":"40e19653-ed79-4283-86d0-dda06654b3ac","content-type":"text/plain"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,22 +76,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天津市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"key": "d152f8a6692d46b7ce09c21b1f583f65","name": "test11"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"errcode": 10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tokenid":"5f0498d6-609e-4aff-bc08-45c6b1a4bae4","content-type":"text/plain"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -183,7 +200,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -469,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -518,16 +535,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -538,24 +555,39 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/interface/case/api.xlsx
+++ b/interface/case/api.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"key": "d152f8a6692d46b7ce09c21b1f583f65","name": "test11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"errcode": 10001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"tokenid":"5f0498d6-609e-4aff-bc08-45c6b1a4bae4","content-type":"text/plain"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.baidu.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +97,18 @@
   </si>
   <si>
     <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要并发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tokenid":"cd2fbaad-52e6-40ce-8066-8f20163ee589","content-type":"text/plain"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"key": "d152f8a6692d46b7ce09c21b1f583f65","name": "test14"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -498,10 +502,11 @@
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="58.625" customWidth="1"/>
     <col min="4" max="4" width="76.375" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -515,16 +520,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -535,19 +543,22 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -555,29 +566,35 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/interface/case/api.xlsx
+++ b/interface/case/api.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="91">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,83 +32,311 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://tsapi.amap.com/v1/track/service/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>特征1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征1</t>
+    <t>操作成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tokenId":"1233b565a214","Content-Type":"text/plain"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否判断长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tokenId":"1233b565a214","Content-Type":"text/plain"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"b6bc6118-97b8-1815-a878-5985cff4f673","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1,"mobileModel":"iPhone"},"body":{"id":"535705","orderNos":""},"sign":"f7eb0111c1d975256257903ef6500e92"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"17fd5547-5ef3-7932-76d0-228440289a72","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611655933000,"mobileModel":"iPhone"},"body":{"ID":"241","orderNo":""},"sign":"22de83a05d0382c173a9032d7acbcbd2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"c540d06c-f355-08f9-6840-d63e191cf025","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611656037000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"sortField":"","sortOrder":""},"sign":"71cd6623db149f8588b5f0322d24da0c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"d0365551-0e8d-7524-b7b8-c3431ca99ec8","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611659299000,"mobileModel":"iPhone"},"body":{"id":90107330},"sign":"e4272c57c9889794e15fdade7249b57e"}</t>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"9924a7bd-215f-6c9b-5555-3d30397f765b","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611659878000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"timeInternal":24,"startPoints":["116.17120292739749,36.352928185422996"],"endPoints":["117.79935180716825,39.003893572026236"],"startFenceIds":null,"endFenceIds":null,"sortField":"","sortOrder":"","withoutCheckStatus":null,"vehicleType":"platform"},"sign":"605a2136b1a1b417336e0062cfb7a590"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"4f422bd8-d693-c402-4dac-270b24ed5301","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611659665000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"timeInternal":24,"startPoints":["116.17120292739749,36.352928185422996"],"endPoints":["117.79935180716825,39.003893572026236"],"startFenceIds":null,"endFenceIds":null,"sortField":"","sortOrder":"","order":null,"withoutCheckStatus":null,"vehicleType":"used"},"sign":"ccb926988415427b6f47501bf17bdfe4"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"9fde643b-78d6-4aa4-c976-f85ec331d208","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611660086000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"timeInternal":24,"startPoints":null,"endPoints":null,"startFenceIds":[2075],"endFenceIds":[2193],"sortField":"","sortOrder":"","withoutCheckStatus":0,"vehicleType":"platform"},"sign":"5cce41574447260288e16319a2efdeb2"}</t>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"3f18a34c-34c4-4621-b487-13cd927afb66","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611660190000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"timeInternal":24,"startPoints":null,"endPoints":null,"startFenceIds":[2075],"endFenceIds":[2193],"sortField":"","sortOrder":"","order":null,"withoutCheckStatus":0,"vehicleType":"used"},"sign":"b828fb290ee4858fb77d5dc74a67e6b3"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"36652852-a352-0715-9041-1dfb47c85f1f","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611660458000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"fromAddressCode":"","toAddressCode":"","sortField":"","sortOrder":""},"sign":"293a560da94f615811689e5b3b105d05"}</t>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"5872c36b-5f5c-e6c6-4cfd-79420e4e4f97","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611714553000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"sortField":"","sortOrder":""},"sign":"baeb853d7c87b94a56820f16dfe165cf"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"676f1843-c3f4-7301-4b65-f86bb3b13de3","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611714643000,"mobileModel":"iPhone"},"body":{"id":18510},"sign":"80aaba930a99b596dacfc43c18fc431a"}</t>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"749a78ec-50ba-e6ad-b4bd-b3e4879c611b","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611715110000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"status":"WAIT_PAY","sortField":"","sortOrder":""},"sign":"4672296f7ee1b0575bc911c885b5a523"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"1f8bfb33-60bf-87df-4945-147f914858fe","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611715355000,"mobileModel":"iPhone"},"body":{"applyType":"WAIT_AUDIT","pageSize":30,"pageNum":1,"sortField":"","sortOrder":""},"sign":"1bdf17c0a1c9731d6fb92d25662eee93"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"61c5071e-2a23-c08d-e192-858ccb27eaeb","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611715727000,"mobileModel":"iPhone"},"body":{"applyType":"WAIT_PAY","pageSize":30,"pageNum":1,"sortField":"","sortOrder":""},"sign":"afadb2a3322461ee0cecacd1158877ce"}</t>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"3821f57a-da19-a332-6d99-cb319250762d","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611715811000,"mobileModel":"iPhone"},"body":{"applyType":"PAYED","pageSize":30,"pageNum":1,"sortField":"","sortOrder":""},"sign":"310394cc9fdd3dee2727db211cca2960"}</t>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"9f85f8ec-040f-e67f-3e5e-f1274975e783","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611717131000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"sortField":"","sortOrder":"","status":"WAIT_BILLING"},"sign":"714f5dcb21dfde5ea298a93df1fb9cbf"}</t>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"be985982-194f-d0dd-0147-f63359f536ec","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611717175000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"sortField":"","sortOrder":""},"sign":"deafe0f356fb54b148059a14b95c6807"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"02e2427a-de16-0568-75c3-36fe78f1e683","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611717203000,"mobileModel":"iPhone"},"sign":"fae751e85ec20333b591e73fbade2f73"}</t>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"29fa246c-52b6-8da3-b973-a0e1ecc9096e","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611717234000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"sortField":"","sortOrder":""},"sign":"07db0d56b43ac3e075f75a9f87661cfd"}</t>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"6519d27d-e6cc-74cb-83ca-5d429384d7ca","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611724992000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"sortField":"","sortOrder":"","statFlag":1},"sign":"28ed50d135a7addc2a1b3b71805bc4ef"}</t>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"4677b1b7-a81b-e8d5-f0e3-732881cf79dc","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611725065000,"mobileModel":"iPhone"},"sign":"273bfcb0e4c60f4f5e199e795de2b582"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"5c1b7394-8f00-2f2e-0e19-1c6eb8e480fe","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611725065000,"mobileModel":"iPhone"},"sign":"7d0f930b0d8147eda7906c2031c6aca8"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"4a00a7bc-b526-72b1-7e68-54bb54475d8b","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611659231000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"sortField":"","sortOrder":""},"sign":"8926c5de4a648abced1e2236de5d3ce7"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"096f23b2-6aff-f93a-a8cf-43bc351ba6c5","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611725364000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"sortField":"","sortOrder":"","statFlag":1},"sign":"7807939fe286b9b76004c6ae7c605dc9"}</t>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"0e298dde-bf51-d0b9-6bed-4632541e0aea","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611738269000,"mobileModel":"iPhone"},"body":{},"sign":"513cd08c416cabba6609f70bd341f2d6"}</t>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"52d0b71b-edc4-81a2-868c-646f32a62289","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611726006000,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"sortField":"","sortOrder":""},"sign":"776a665943a23c69f6426254f1aeda27"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"e1c8d3c5-7546-929d-5055-18a79e2bb9a7","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"fromAddressCode":"","toAddressCode":"","sortField":"","sortOrder":""},"sign":"1b30793b548d993ceb189ef168e8ae2f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tokenId":"1233b565a214","Content-Type":"text/plain"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"dd8987fa-9796-645c-0614-ebbcc9acdf33","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1,"mobileModel":"iPhone"},"body":{"pageSize":30,"pageNum":1,"sortField":"","sortOrder":"","status":"ALL"},"sign":"a29fbc30795"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tokenId":"1233b565a214","Content-Type":"text/plain"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"b66709f8-9090-be21-d5d2-9900b1976c74","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1612234498000,"mobileModel":"iPhone"},"body":{"id":"547913"},"sign":"8068cadbb720cbc999af142496e19ae6"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"5be428d1-9031-344d-9e2e-ad34adf9c649","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611738613000,"mobileModel":"iPhone"},"body":{"fromAddresses":[{"address":"北京市海淀区东北旺西路8号中关村软件园27号院千方科技大厦A座","province":"北京市","city":"海淀区","cityCode":"110108","contactName":"地址别删除2","provinceCode":"110000","latitude":"40.05101499812581","contactPhone":"18721221627","longitude":"116.29508280653407","formatAddress":"北京市海淀区北京市海淀区东北旺西路8号中关村软件园27号院千方科技大厦A座"}],"toAddresses":[{"address":"天津站(新纬路1号)","province":"天津市","city":"河北区","cityCode":"120105","contactName":"2","provinceCode":"120000","latitude":"39.14197959755824","contactPhone":"15555555555","longitude":"117.21661644665535","formatAddress":"天津市河北区天津站(新纬路1号)"}],"orderCargoEntities":[{"cargoType":"137003","cargoTypeName":"木材","cargoName":"木头","cargoVolumn":"20","cargoWeight":"10"}],"agentPriceName":"","needReceipt":0,"needInvoice":1,"expDepartTime":"2021-01-27 17:09:00","expArriveTime":"2021-01-28 17:09:00","contractUrl":"https://utrailer-hz.oss-cn-hangzhou.aliyuncs.com/anxinsign/YS20201028000001020.pdf","askDriverPayeeId":27308,"payeeId":null,"agencyFundContractUrl":"","askVehicleId":3076,"askDriverPhone":"18518766734","orderPriceItem":[{"stage":"REST","type":"CASH","amountName":"0.1"}]},"sign":"f99bb72cb00662b343dcf6f48e511f61"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tokenId":"1233b565a214","Content-Type":"text/plain"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"0d3d3ef1-03ef-a50e-a02e-0d5947c9a873","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1612333583000,"mobileModel":"iPhone"},"body":{"id":309},"sign":"0f6a720d2d6bc688716b353cc89a1f81"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"0fbcdfcf-5d04-12a5-87ad-d580ed9e8eb7","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611659722000,"mobileModel":"iPhone"},"body":{"pageNum":1,"pageSize":10,"keywords":"","fenceType":"公司","withoutCheckStatus":null},"sign":"63e00e04cda740c9eaeca2583ace806f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"b314676a-211d-e69b-40f0-a14c992f8a3a","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1611656131000,"mobileModel":"iPhone"},"body":{"id":70105787},"sign":"903052540500c29f7d46f5ec038f2a98"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"56499ec4-b08e-68b9-67d5-22a553cebce1","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1612333441000,"mobileModel":"iPhone"},"body":{"orderNo":"","customerOrderId":"","monitorType":0,"vehicleId":90107330,"vehiclePlateNo":"宁D10053","fromAddressId":16,"fromAddressType":1,"fromAddress":"北京市海淀区东北旺西路8号中关村软件园27号院千方科技大厦A座","fromLocation":"116.28859936935558,40.044890404717975","fromAddressFence":"116.289854,40.04487;116.287901,40.045273;116.287515,40.045117;116.287359,40.044911;116.287359,40.044694;116.28752,40.044452;116.287992,40.044287;116.288534,40.04432;116.2898,40.044739;116.289789,40.044735;116.289854,40.04487","fromAddressCode":"110000|110108|110108","fromAddressName":"北京市|海淀区|海淀区","toAddressId":1950,"toAddressType":1,"toAddress":"东疆保税港区新港八号路","toLocation":"117.78198085532586,39.05839405860907","toAddressFence":"117.748096,39.104045;117.727153,39.044075;117.83736,39.043275;117.748096,39.104045","toAddressCode":"120000|120000|120116","toAddressName":"天津市|滨海新区|东疆保税港区","loadTime":"2021-02-03 15:23:00","loadFinishTime":"2021-02-03 15:23:00","unLoadTime":"2021-02-04 14:23:00","unLoadFinishTime":"2021-02-04 14:23:00","cargoType":"","cargoName":"","cargoNumber":"","cargoUnit":0,"loadWarning":1,"unLoadWarning":1,"fatigueWarning":1,"speedWaring":1},"sign":"5d3ee2e0d503a233e6cba215293e7fbc"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"head":{"sequenceCode":"c2dc3a9b-b2ca-650d-7db4-7399c8f6019a","callType":"H5","protocolVersion":"2.0","appVersion":"2.0.0","systemVersion":"11.2.2","bizId":"7","requestTime":1614307635000,"mobileModel":"iPhone"},"body":{"id":"216"},"sign":"657a1ae7ab1984f0cb7b85a28d0edd77"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15911067023","password":"6134f5a639cd660a5271a733ca0e2aea","validateCode":"","type":"0","userPhone":"15911067023"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/enterprise/homePage</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/vmOrder/stat</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/order/save</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/order/list</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/order/info</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/order/cancel</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/vmOrder/add</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/vmOrder/list</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/vmOrder/info</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/vmOrder/cancel</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/resource/driver/list</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/resource/driver/detail</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/resource/vehicle/list</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/resource/vehicle/detail</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/enterprise/address/list</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/fence/vehicle/query</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/vm/vehicle/apply/list</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/resource/payeeinfo/list</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/resource/payeeinfo/detail</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/payment/order/audit/list</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/payment/order/pay/list</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/payment/log/list</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/order/invoice/list</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/invoice/info</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/invoice/address/list</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/payment/trade/list</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/payment/account</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/rebate/list</t>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/me/login?phone=15911067023&amp;password=6134f5a639cd660a5271a733ca0e2aea&amp;validateCode=&amp;type=0&amp;userPhone=15911067023&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/web/order/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://test-ebs.utrailer.cn/api/vm/vehicle/apply/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"content-type":"text/plain"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特征2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"head": {"sequenceCode": "60472556-97f3-4229-51e1-6050535a07f3", "callType": "H5","protocolVersion": "2.0", "appVersion": "2.0.0", "systemVersion": "11.2.2", "bizId": "7","requestTime": 1602752911000, "mobileModel": "iPhone"},"body": {"pageSize": 30, "pageNum": 1, "sortField": "", "sortOrder": "", "status": "ALL"},"sign": "25991ba0237dc398cfa24e55201380ef"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://test-ebs.utrailer.cn/api/web/order/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"errcode": 10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否需要并发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tokenid":"cd2fbaad-52e6-40ce-8066-8f20163ee589","content-type":"text/plain"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"key": "d152f8a6692d46b7ce09c21b1f583f65","name": "test14"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +366,21 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -167,24 +410,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -490,121 +743,874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="51.875" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="58.625" customWidth="1"/>
-    <col min="4" max="4" width="76.375" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="63.75" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
+    <col min="4" max="4" width="29.25" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="8" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2">
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://ebs.utrailer.cn/api/web/vmOrder/list"/>
+    <hyperlink ref="A11" r:id="rId3" display="https://ebs.utrailer.cn/api/web/vmOrder/info"/>
+    <hyperlink ref="A13" r:id="rId4" display="https://ebs.utrailer.cn/api/web/resource/driver/list"/>
+    <hyperlink ref="A14" r:id="rId5" display="https://ebs.utrailer.cn/api/web/resource/driver/detail"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://ebs.utrailer.cn/api/web/resource/vehicle/list"/>
+    <hyperlink ref="A16" r:id="rId7" display="https://ebs.utrailer.cn/api/web/resource/vehicle/detail"/>
+    <hyperlink ref="A17" r:id="rId8" display="https://ebs.utrailer.cn/api/web/enterprise/address/list"/>
+    <hyperlink ref="A18" r:id="rId9" display="https://ebs.utrailer.cn/api/web/fence/vehicle/query"/>
+    <hyperlink ref="A19" r:id="rId10" display="https://ebs.utrailer.cn/api/web/fence/vehicle/query"/>
+    <hyperlink ref="A21" r:id="rId11" display="https://ebs.utrailer.cn/api/web/fence/vehicle/query"/>
+    <hyperlink ref="A20" r:id="rId12" display="https://ebs.utrailer.cn/api/web/fence/vehicle/query"/>
+    <hyperlink ref="A22" r:id="rId13" display="https://ebs.utrailer.cn/api/vm/vehicle/apply/list"/>
+    <hyperlink ref="A24" r:id="rId14" display="https://ebs.utrailer.cn/api/web/resource/payeeinfo/list"/>
+    <hyperlink ref="A25" r:id="rId15" display="https://ebs.utrailer.cn/api/web/resource/payeeinfo/detail"/>
+    <hyperlink ref="A26" r:id="rId16" display="https://ebs.utrailer.cn/api/web/order/list"/>
+    <hyperlink ref="A27" r:id="rId17" display="https://ebs.utrailer.cn/api/web/payment/order/audit/list"/>
+    <hyperlink ref="A28" r:id="rId18" display="https://ebs.utrailer.cn/api/web/payment/order/pay/list"/>
+    <hyperlink ref="A29" r:id="rId19" display="https://ebs.utrailer.cn/api/web/payment/log/list"/>
+    <hyperlink ref="A30" r:id="rId20" display="https://ebs.utrailer.cn/api/web/order/list"/>
+    <hyperlink ref="A31" r:id="rId21" display="https://ebs.utrailer.cn/api/web/order/invoice/list"/>
+    <hyperlink ref="A32" r:id="rId22" display="https://ebs.utrailer.cn/api/web/invoice/info"/>
+    <hyperlink ref="A33" r:id="rId23" display="https://ebs.utrailer.cn/api/web/invoice/address/list"/>
+    <hyperlink ref="A34" r:id="rId24" display="https://ebs.utrailer.cn/api/web/payment/trade/list"/>
+    <hyperlink ref="A35" r:id="rId25" display="https://ebs.utrailer.cn/api/web/payment/account"/>
+    <hyperlink ref="A3" r:id="rId26" display="https://ebs.utrailer.cn/api/web/enterprise/homePage"/>
+    <hyperlink ref="A37" r:id="rId27" display="https://ebs.utrailer.cn/api/web/enterprise/address/list"/>
+    <hyperlink ref="A5" r:id="rId28" display="https://ebs.utrailer.cn/api/web/order/save"/>
+    <hyperlink ref="A6" r:id="rId29"/>
+    <hyperlink ref="A4" r:id="rId30" display="https://ebs.utrailer.cn/api/web/vmOrder/stat"/>
+    <hyperlink ref="A8" r:id="rId31" display="https://ebs.utrailer.cn/api/web/order/cancel"/>
+    <hyperlink ref="A9" r:id="rId32"/>
+    <hyperlink ref="A12" r:id="rId33"/>
+    <hyperlink ref="A36" r:id="rId34"/>
+    <hyperlink ref="A23" r:id="rId35"/>
+    <hyperlink ref="A2" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>